--- a/formshare/tests/resources/forms/support_zip_file/support_zip_fileB.xlsx
+++ b/formshare/tests/resources/forms/support_zip_file/support_zip_fileB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="1191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="1192">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -3755,6 +3755,9 @@
   </si>
   <si>
     <t xml:space="preserve">default_language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">version</t>
   </si>
   <si>
     <t xml:space="preserve">Support Zip File</t>
@@ -8926,7 +8929,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -8945,7 +8948,7 @@
       <selection pane="topLeft" activeCell="B58" activeCellId="0" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="32" width="34.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="57" width="25.6"/>
@@ -14787,7 +14790,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -14803,10 +14806,10 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="173" zoomScaleNormal="173" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.23"/>
@@ -14824,24 +14827,28 @@
       <c r="C1" s="188" t="s">
         <v>1187</v>
       </c>
-      <c r="D1" s="32"/>
+      <c r="D1" s="32" t="s">
+        <v>1188</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="50" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="C2" s="135" t="s">
-        <v>1190</v>
-      </c>
-      <c r="D2" s="32"/>
+        <v>1191</v>
+      </c>
+      <c r="D2" s="32" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
